--- a/Master_data_base/master_dataset.xlsx
+++ b/Master_data_base/master_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,11 +506,7 @@
           <t>1 POS. 3/2 INDIVIDUAL SUBPLATE KIT (AL) WITH PUSH-IN FITTINGS AND SILENCER | SUPPLIED WITH INSTALLATION HARDWARE T SHAPE</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
         <v>39.6</v>
       </c>
@@ -564,11 +560,7 @@
           <t>1 POS. 3/2 INDIVIDUAL SUBPLATE KIT (AL) WITH PUSH-IN FITTINGS | SUPPLIED WITH INSTALLATION HARDWARE T SHAPE</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
         <v>34</v>
       </c>
@@ -622,11 +614,7 @@
           <t>10 POS. 3/2 MULTIPLE SUBPLATE KIT (AL) WITH PUSH-IN FITTINGS AND SILENCER | SUPPLIED WITH INSTALLATION HARDWARE</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>169.6</v>
       </c>
@@ -680,11 +668,7 @@
           <t>10 POS. 3/2 MULTIPLE SUBPLATE KIT (AL) WITH PUSH-IN FITTINGS | SUPPLIED WITH INSTALLATION HARDWARE</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>229</v>
       </c>
@@ -738,11 +722,7 @@
           <t>2 POS. 3/2 INDIVIDUAL SUBPLATE KIT (AL) WITH NIPPLES | SUPPLIED WITH INSTALLATION HARDWARE</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
         <v>34</v>
       </c>
@@ -796,11 +776,7 @@
           <t>2 POS. 3/2 INDIVIDUAL SUBPLATE KIT (AL) WITH PUSH-IN FITTINGS | SUPPLIED WITH INSTALLATION HARDWARE</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
         <v>30.6</v>
       </c>
@@ -854,11 +830,7 @@
           <t>2 POS. 3/2 MULTIPLE SUBPLATE KIT (AL) WITH PUSH-IN FITTINGS AND SILENCER | SUPPLIED WITH INSTALLATION HARDWARE</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
         <v>53</v>
       </c>
@@ -912,11 +884,7 @@
           <t>2 POS. 3/2 MULTIPLE SUBPLATE KIT (AL) WITH PUSH-IN FITTINGS | SUPPLIED WITH INSTALLATION HARDWARE</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
         <v>80.59999999999999</v>
       </c>
@@ -970,11 +938,7 @@
           <t>2 POS. 3/2 MULTIPLE SUBPLATE KIT (AL) WITH PUSH-IN FITTINGS | SUPPLIED WITH INSTALLATION HARDWARE</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
         <v>46.8</v>
       </c>
@@ -1028,11 +992,7 @@
           <t>2/2 NC 1100 L/MIN 6 BAR 8 X 1/2 BAR 24/5 VDC SPEED-UP IP62 500MM AWG24 TIN PLATED TERMINALS N.8 INDEPENDENT CTRLS | NBR | Ø8 Ø8</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
         <v>428</v>
       </c>
@@ -1086,11 +1046,7 @@
           <t>2/2 NC 1700 L/MIN 6 BAR 8 X 1/2 BAR 24/5 VDC SPEED-UP IP62 500MM AWG24 TIN PLATED TERMINALS N.8 INDEPENDENT CTRLS | NBR | Ø8 Ø8</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
         <v>452</v>
       </c>
@@ -1144,11 +1100,7 @@
           <t>2/2 OR 3/2 INDIVIDUAL SUBPLATE FOR EMPTY SEATS | SUPPLIED WITH INSTALLATION HARDWARE AND SEALS</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
         <v>10.6</v>
       </c>
@@ -1202,11 +1154,7 @@
           <t>20 POS. 3/2 MULTIPLE SUBPLATE KIT (AL) WITH PUSH-IN FITTINGS AND SILENCER | SUPPLIED WITH INSTALLATION HARDWARE</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
         <v>218.4</v>
       </c>
@@ -1260,11 +1208,7 @@
           <t>3/2 NC 1/8 (MIN 6 BAR / 10 BAR 12 VDC) INBR | IP52-PICO-SPOX TYPE MALE CONNECTOR | SUBPLATE MOUNTING</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
         <v>40</v>
       </c>
@@ -1318,11 +1262,7 @@
           <t>3/2 NC 1/8 (MIN 6 BAR / 10 BAR 24 VDC) INBR | IP52-PICO-SPOX TYPE MALE CONNECTOR | SUBPLATE MOUNTING</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
         <v>40</v>
       </c>
@@ -1376,11 +1316,7 @@
           <t>3/2 NC 1/8 (MIN 6 BAR / 10 BAR 24/5 VDC SPEED-UP) INBR | IP52-PICO-SPOX TYPE MALE CONNECTOR | SUBPLATE MOUNTING</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
         <v>44.2</v>
       </c>
@@ -1434,11 +1370,7 @@
           <t>3/2 NC 1/8 (MIN 6 BAR / 10 BAR 6 BAR 6 VDC) INBR | IP52-PICO-SPOX TYPE MALE CONNECTOR | SUBPLATE MOUNTING</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
         <v>40</v>
       </c>
@@ -1492,11 +1424,7 @@
           <t>4 POS. 3/2 MULTIPLE SUBPLATE KIT (AL) WITH PUSH-IN FITTINGS AND SILENCER | SUPPLIED WITH INSTALLATION HARDWARE</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
         <v>89.2</v>
       </c>
@@ -1550,11 +1478,7 @@
           <t>4 POS. 3/2 MULTIPLE SUBPLATE KIT (AL) WITH PUSH-IN FITTINGS | SUPPLIED WITH INSTALLATION HARDWARE</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
         <v>112.4</v>
       </c>
@@ -1608,11 +1532,7 @@
           <t>6 POS. 3/2 MULTIPLE SUBPLATE KIT (AL) WITH PUSH-IN FITTINGS AND SILENCER | SUPPLIED WITH INSTALLATION HARDWARE</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
         <v>104</v>
       </c>
@@ -1666,11 +1586,7 @@
           <t>6 POS. 3/2 MULTIPLE SUBPLATE KIT (AL) WITH PUSH-IN FITTINGS | SUPPLIED WITH INSTALLATION HARDWARE</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
         <v>182.4</v>
       </c>
@@ -1724,11 +1640,7 @@
           <t>FKM SEALS</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
         <v>7.4</v>
       </c>
@@ -1782,11 +1694,7 @@
           <t>INBR SEALS</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
         <v>6</v>
       </c>
@@ -1840,11 +1748,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT 1000 MM AWG28 TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
         <v>6.4</v>
       </c>
@@ -1898,11 +1802,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT 1500 MM AWG28 TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
         <v>11.2</v>
       </c>
@@ -1956,11 +1856,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT 2000 MM AWG28 TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
         <v>7</v>
       </c>
@@ -2014,11 +1910,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT 3000 MM AWG28 TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
         <v>6.6</v>
       </c>
@@ -2072,11 +1964,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT 500 MM AWG28 TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
         <v>6.8</v>
       </c>
@@ -2130,11 +2018,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT 5000 MM AWG28 TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
         <v>19.6</v>
       </c>
@@ -2188,11 +2072,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT 7000 MM AWG28 TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
         <v>8.199999999999999</v>
       </c>
@@ -2246,11 +2126,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT WITH RUBBER DUST PROTECTION COVER 1000 MM AWG28 TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
         <v>9.9</v>
       </c>
@@ -2304,11 +2180,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT WITH RUBBER DUST PROTECTION COVER 1500 MM AWG28 TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
         <v>9.4</v>
       </c>
@@ -2362,11 +2234,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT WITH RUBBER DUST PROTECTION COVER 1500 MM AWG28 TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
         <v>13.6</v>
       </c>
@@ -2420,11 +2288,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT WITH RUBBER DUST PROTECTION COVER 2000 MM AWG28 TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
         <v>9.6</v>
       </c>
@@ -2478,11 +2342,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT WITH RUBBER DUST PROTECTION COVER 3000 MM AWG28 TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
         <v>9.199999999999999</v>
       </c>
@@ -2536,11 +2396,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT WITH RUBBER DUST PROTECTION COVER 5000 MM AWG28 TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
         <v>22.2</v>
       </c>
@@ -2594,11 +2450,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT WITH RUBBER DUST PROTECTION COVER 7000 MM AWG28 TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
         <v>10.6</v>
       </c>
@@ -2652,11 +2504,7 @@
           <t>IP62 500MM AWG24 INTEGRATED WIRE S-DI 3.5 MALE CONNECTOR 12 WIRES (8 CTRLS + 4 COMMON GND)</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
         <v>51</v>
       </c>
@@ -2710,11 +2558,7 @@
           <t>MANIFOLD MOUNTING INLET INTERFACE DESIGN FOR G5450 SERIES MANIFOLDS (NO INLET PUSH-IN FITTING)</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
         <v>38</v>
       </c>
@@ -2768,11 +2612,7 @@
           <t>RUBBER DUST PROTECTION COVER FOR PICO-SPOX TYPE WIRING KITS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
         <v>2.6</v>
       </c>
@@ -2826,11 +2666,7 @@
           <t>VACUUM</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
         <v>7.4</v>
       </c>
@@ -2870,6 +2706,2058 @@
       <c r="L42" t="inlineStr">
         <is>
           <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DCX3211E4C306</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>40</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|1</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>021244C</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|22</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>021284Q</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>34</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|23</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>021352G</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>53</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|24</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>021353H</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|25</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>021265X</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|26</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>021354L</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|27</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>021266V</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>112.4</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|28</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>021355J</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>104</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|29</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>021356K</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|30</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>021357L</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>169.6</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|31</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>021267Z</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>229</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|32</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>021288U</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>218.4</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|33</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>021303J</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|34</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MX458S00C2</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>428</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|3|1</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>450 Series</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>OX458S00C2</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>452</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|3|2</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>450 Series</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>021351F</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|21</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>021350E</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>34</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|20</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>021227L</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|19</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>021484I</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|18</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>DCX3211E3C312</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>40</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|2</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>DCX3211E3C324</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>40</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|3</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>DCX3211E3C3KK</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|4</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>021481F</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|5</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>021259R</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>9</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|6</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>021482G</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|7</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>021457H</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|8</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>38</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|3|3</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>450 Series</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>021327H</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|9</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>021519R</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>7</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|11</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>021518Q</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|12</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>021788A</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|13</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>021516O</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|14</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>021211V</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|15</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>021228M</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|16</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>021485J</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|17</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>021260S</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|2|10</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>320 Series</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>DX</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>51</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>MATRIX Fiyat Listesi 10.03.25.pdf</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>MATRIX_Fiyat_Listesi_10.03.25|3|4</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>450 Series</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_03.jpg</t>
         </is>
       </c>
     </row>

--- a/Master_data_base/master_dataset.xlsx
+++ b/Master_data_base/master_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,11 +506,7 @@
           <t>3/2 1 NC | 28 L/MIN @ 6 BAR | 0-6 BAR | 6 VDC | NBR | IP52 PICO-SPOX TYPE MALE CONNECTOR | SUBPLATE MOUNTING</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
         <v>40</v>
       </c>
@@ -564,11 +560,7 @@
           <t>3/2 1 NC | 28 L/MIN @ 6 BAR | 0-8 BAR | 12 VDC | NBR | IP52 PICO-SPOX TYPE MALE CONNECTOR | SUBPLATE MOUNTING</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
         <v>40</v>
       </c>
@@ -622,11 +614,7 @@
           <t>3/2 1 NC | 28 L/MIN @ 6 BAR | 0-8 BAR | 24 VDC | NBR | IP52 PICO-SPOX TYPE MALE CONNECTOR | SUBPLATE MOUNTING</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
         <v>40</v>
       </c>
@@ -680,11 +668,7 @@
           <t>3/2 1 NC | 28 L/MIN @ 6 BAR | 0-8 BAR | 24/5 VDC SPEED-UP | NBR | IP52 PICO-SPOX TYPE MALE CONNECTOR | SUBPLATE MOUNTING</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>44.2</v>
       </c>
@@ -738,11 +722,7 @@
           <t>3/2 1 NCI 28 L/MIN @ 6 BAR | 0-6 BAR | 6 VDC | NBR | IP52 PICO-SPOX TYPE MALE CONNECTOR | SUBPLATE MOUNTING</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
         <v>40</v>
       </c>
@@ -796,11 +776,7 @@
           <t>3/2 1 NCI 28 L/MIN @ 6 BAR | 0-8 BAR | 12 VDC | NBR | IP52 PICO-SPOX TYPE MALE CONNECTOR | SUBPLATE MOUNTING</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
         <v>40</v>
       </c>
@@ -854,11 +830,7 @@
           <t>3/2 1 NCI 28 L/MIN @ 6 BAR | 0-8 BAR | 24 VDC | NBR | IP52 PICO-SPOX TYPE MALE CONNECTOR | SUBPLATE MOUNTING</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
         <v>40</v>
       </c>
@@ -912,11 +884,7 @@
           <t>3/2 1 NCI 28 L/MIN @ 6 BAR | 0-8 BAR | 24/5 VDC SPEED-UP | NBR | IP52 PICO-SPOX TYPE MALE CONNECTOR | SUBPLATE MOUNTING</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
         <v>44.2</v>
       </c>
@@ -970,11 +938,7 @@
           <t>FKM SEALS</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
         <v>7.4</v>
       </c>
@@ -1028,11 +992,7 @@
           <t>FKM SEALS</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
         <v>7.4</v>
       </c>
@@ -1086,11 +1046,7 @@
           <t>HNBR SEALS</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
         <v>6</v>
       </c>
@@ -1144,11 +1100,7 @@
           <t>HNBR SEALS</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
         <v>6</v>
       </c>
@@ -1202,11 +1154,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT 100 MM | AWG28 | TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
         <v>6.4</v>
       </c>
@@ -1260,11 +1208,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT WITH RUBBER DUST PROTECTION COVER | 100 MM | AWG28 | TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
         <v>9</v>
       </c>
@@ -1318,11 +1262,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT WITH RUBBER DUST PROTECTION COVER | 1000 MM | AWG28 | TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
         <v>10.6</v>
       </c>
@@ -1376,11 +1316,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT WITH RUBBER DUST PROTECTION COVER | 1000 MM | AWG28 | TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
         <v>9</v>
       </c>
@@ -1434,11 +1370,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT WITH RUBBER DUST PROTECTION COVER | 2000 MM | AWG28 | TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
         <v>13.6</v>
       </c>
@@ -1492,11 +1424,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT WITH RUBBER DUST PROTECTION COVER | 300 MM | AWG28 | TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
         <v>9.199999999999999</v>
       </c>
@@ -1550,11 +1478,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT WITH RUBBER DUST PROTECTION COVER | 500 MM | AWG28 | TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
         <v>9.4</v>
       </c>
@@ -1608,11 +1532,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT WITH RUBBER DUST PROTECTION COVER | 700 MM | AWG28 | TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
         <v>9.6</v>
       </c>
@@ -1666,11 +1586,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT | 1000 MM | AWG28 | TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
         <v>8.199999999999999</v>
       </c>
@@ -1724,11 +1640,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT | 1000 MM | AWG28 | TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
         <v>6.4</v>
       </c>
@@ -1782,11 +1694,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT | 2000 MM | AWG28 | TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
         <v>11.2</v>
       </c>
@@ -1840,11 +1748,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT | 300 MM | AWG28 | TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
         <v>6.6</v>
       </c>
@@ -1898,11 +1802,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT | 300 MM | AWG28 | TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
         <v>6.6</v>
       </c>
@@ -1956,11 +1856,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT | 500 MM | AWG28 | TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
         <v>6.8</v>
       </c>
@@ -2014,11 +1910,7 @@
           <t>IP52 PICO-SPOX TYPE FEMALE WIRING KIT | 700 MM | AWG28 | TIN-PLATED TERMINALS</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
         <v>7</v>
       </c>
@@ -2072,11 +1964,7 @@
           <t>IP67 M8 2 PINS INTEGRATED MALE CONNECTOR</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
         <v>7.4</v>
       </c>
@@ -2116,6 +2004,786 @@
       <c r="L29" t="inlineStr">
         <is>
           <t>LLM_Output_db/MATRIX_Fiyat_Listesi_10.03.25/page_image_page_02.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>M22D71M2a</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>3605</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>MERA MOTOR GAMAK</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>MERA MOTOR-GAMAK 2025.pdf</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>MERA_MOTOR-GAMAK_2025|3|1</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>MONOFAZE MOTORLAR</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>DAİMİ KONDANSATÖRLÜ MOTORLAR</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MERA_MOTOR-GAMAK_2025/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>M22D71M2b</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>3756</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MERA MOTOR GAMAK</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>MERA MOTOR-GAMAK 2025.pdf</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>MERA_MOTOR-GAMAK_2025|3|2</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>MONOFAZE MOTORLAR</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>DAİMİ KONDANSATÖRLÜ MOTORLAR</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MERA_MOTOR-GAMAK_2025/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>M22D71M2c</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>3805</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MERA MOTOR GAMAK</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>MERA MOTOR-GAMAK 2025.pdf</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>MERA_MOTOR-GAMAK_2025|3|3</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>MONOFAZE MOTORLAR</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>DAİMİ KONDANSATÖRLÜ MOTORLAR</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MERA_MOTOR-GAMAK_2025/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>M22D71M2d</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>3944</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>MERA MOTOR GAMAK</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>MERA MOTOR-GAMAK 2025.pdf</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>MERA_MOTOR-GAMAK_2025|3|4</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>MONOFAZE MOTORLAR</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>DAİMİ KONDANSATÖRLÜ MOTORLAR</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MERA_MOTOR-GAMAK_2025/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>M22D80M2a</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>4675</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>MERA MOTOR GAMAK</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>MERA MOTOR-GAMAK 2025.pdf</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>MERA_MOTOR-GAMAK_2025|3|5</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>MONOFAZE MOTORLAR</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>DAİMİ KONDANSATÖRLÜ MOTORLAR</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MERA_MOTOR-GAMAK_2025/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>M22D80M2b</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>4875</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>MERA MOTOR GAMAK</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>MERA MOTOR-GAMAK 2025.pdf</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>MERA_MOTOR-GAMAK_2025|3|6</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>MONOFAZE MOTORLAR</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DAİMİ KONDANSATÖRLÜ MOTORLAR</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MERA_MOTOR-GAMAK_2025/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>M22D80M2c</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>4998</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>MERA MOTOR GAMAK</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>MERA MOTOR-GAMAK 2025.pdf</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>MERA_MOTOR-GAMAK_2025|3|7</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>MONOFAZE MOTORLAR</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>DAİMİ KONDANSATÖRLÜ MOTORLAR</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MERA_MOTOR-GAMAK_2025/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>M22D80M2d</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>5219</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>MERA MOTOR GAMAK</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>MERA MOTOR-GAMAK 2025.pdf</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>MERA_MOTOR-GAMAK_2025|3|8</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>MONOFAZE MOTORLAR</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>DAİMİ KONDANSATÖRLÜ MOTORLAR</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MERA_MOTOR-GAMAK_2025/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>M22D71M4a</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>3658</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>MERA MOTOR GAMAK</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>MERA MOTOR-GAMAK 2025.pdf</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>MERA_MOTOR-GAMAK_2025|3|9</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>MONOFAZE MOTORLAR</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>DAİMİ KONDANSATÖRLÜ MOTORLAR</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MERA_MOTOR-GAMAK_2025/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>M22D71M4b</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>3731</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>MERA MOTOR GAMAK</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>MERA MOTOR-GAMAK 2025.pdf</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>MERA_MOTOR-GAMAK_2025|3|10</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>MONOFAZE MOTORLAR</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>DAİMİ KONDANSATÖRLÜ MOTORLAR</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MERA_MOTOR-GAMAK_2025/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>M22D71M4c</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>3960</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>MERA MOTOR GAMAK</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>MERA MOTOR-GAMAK 2025.pdf</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>MERA_MOTOR-GAMAK_2025|3|11</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>MONOFAZE MOTORLAR</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>DAİMİ KONDANSATÖRLÜ MOTORLAR</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MERA_MOTOR-GAMAK_2025/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>M22D71M4d</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>4227</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>MERA MOTOR GAMAK</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>MERA MOTOR-GAMAK 2025.pdf</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>MERA_MOTOR-GAMAK_2025|3|12</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>MONOFAZE MOTORLAR</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>DAİMİ KONDANSATÖRLÜ MOTORLAR</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MERA_MOTOR-GAMAK_2025/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>M22D80M4a</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>4725</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>MERA MOTOR GAMAK</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>MERA MOTOR-GAMAK 2025.pdf</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>MERA_MOTOR-GAMAK_2025|3|13</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>MONOFAZE MOTORLAR</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>DAİMİ KONDANSATÖRLÜ MOTORLAR</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MERA_MOTOR-GAMAK_2025/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>M22D80M4b</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>5646</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>MERA MOTOR GAMAK</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>MERA MOTOR-GAMAK 2025.pdf</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>MERA_MOTOR-GAMAK_2025|3|14</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>MONOFAZE MOTORLAR</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>DAİMİ KONDANSATÖRLÜ MOTORLAR</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MERA_MOTOR-GAMAK_2025/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>M22D80H4c</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>6438</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>MERA MOTOR GAMAK</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>MERA MOTOR-GAMAK 2025.pdf</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>MERA_MOTOR-GAMAK_2025|3|15</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>MONOFAZE MOTORLAR</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>DAİMİ KONDANSATÖRLÜ MOTORLAR</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/MERA_MOTOR-GAMAK_2025/page_image_page_03.jpg</t>
         </is>
       </c>
     </row>

--- a/Master_data_base/master_dataset.xlsx
+++ b/Master_data_base/master_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2331,6 +2331,2446 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>JKS24</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>90</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|2</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>JKS38</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>1150</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|4</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>JKS42</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|5</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>JKS55</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|7</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>JKS65</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>4250</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|8</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>JKS75</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>8000</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|9</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>JKS90</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|10</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>UJKS19</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="n">
+        <v>90</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|11</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>JKS28</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>630</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|3</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>UJKS24</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>650</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|12</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>UJKS38</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|14</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>UJKS42</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>1650</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|15</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>UJKS48</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>2750</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|16</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>UJKS55</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="n">
+        <v>4300</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|17</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>UJKS65</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="n">
+        <v>9250</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|18</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>UJKS75</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>19800</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|19</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>UJKS90</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>26600</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|20</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>UJKS28</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>795</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|13</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>JKS24</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>450</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|2</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>JKS48</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>2300</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|6</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>UJKS90</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|20</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>JKS28</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="n">
+        <v>110</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|3</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>JKS38</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>180</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|4</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>JKS42</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>260</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|5</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>JKS48</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>380</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|6</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>JKS19</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="n">
+        <v>90</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|4|1</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>İŞLENMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_04.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>JKS65</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>460</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|8</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>JKS75</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|9</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>JKS90</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>1600</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|10</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>JKS55</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>460</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|7</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ STANDART JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>UJKS28</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="n">
+        <v>110</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|13</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>UJKS38</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="n">
+        <v>180</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|14</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>UJKS42</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="n">
+        <v>260</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|15</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>UJKS48</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>380</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|16</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>UJKS55</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>460</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|17</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>UJKS24</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="n">
+        <v>90</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|12</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>UJKS65</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="n">
+        <v>460</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|18</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>UJKS75</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="n">
+        <v>1300</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|3|19</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>İŞLENMEMİŞ UZUN JAWTEX KAPLİNLER</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_03.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>9FREEZE</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Ø12,5 MM Ø15,5 MM</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="n">
+        <v>550</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|5|1</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>JAWTEX İŞLENMİŞ FREZELİ TEK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>FREZELİ JK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_05.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>HDP3013FREEZE</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Ø18,50 MM Ø21,80 MM</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="n">
+        <v>500</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|5|4</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>JAWTEX İŞLENMİŞ FREZELİ TEK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>FREZELİ JK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_05.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>LVP3013FREEZE</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Ø19,00 MM Ø22,30 MM</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="n">
+        <v>500</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|5|5</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>JAWTEX İŞLENMİŞ FREZELİ TEK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>FREZELİ JK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_05.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>6FREEZE</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Ø20,10 MM Ø25,10 MM</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="n">
+        <v>550</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|5|2</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>JAWTEX İŞLENMİŞ FREZELİ TEK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>FREZELİ JK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_05.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>LVP4815FREEZE</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Ø22,20 MM Ø25,70 MM</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="n">
+        <v>500</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|5|9</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>JAWTEX İŞLENMİŞ FREZELİ TEK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>FREZELİ JK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_05.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>H1C5514FREEZE</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Ø25,50 MM Ø30,00 MM</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="n">
+        <v>500</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|5|6</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>JAWTEX İŞLENMİŞ FREZELİ TEK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>FREZELİ JK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_05.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>HDP3514FREEZE</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Ø27,25 MM Ø31,20 MM</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="n">
+        <v>500</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|5|7</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>JAWTEX İŞLENMİŞ FREZELİ TEK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>FREZELİ JK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_05.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>LVP759014FREEZE</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Ø31,70 MM Ø37,00 MM</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="n">
+        <v>500</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|5|8</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>JAWTEX İŞLENMİŞ FREZELİ TEK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>FREZELİ JK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_05.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>8FREEZE</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Ø32,00 MM Ø35,00 MM</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>700</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|5|3</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>JAWTEX İŞLENMİŞ FREZELİ TEK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>FREZELİ JK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_05.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>H1C9018FREEZE</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Ø36,10 MM Ø39,70 MM</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>₺</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ESMAKSAN</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>ESMAKSAN 2025 MART FİYAT LİSTESİ.pdf</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0|5|10</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>JAWTEX İŞLENMİŞ FREZELİ TEK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>FREZELİ JK KAPLIN DİŞLİSİ</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>LLM_Output_db/ESMAKSAN_2025_MART_F%C4%B0YAT_L%C4%B0STES%C4%B0/page_image_page_05.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
